--- a/pipeline_routes.xlsx
+++ b/pipeline_routes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Code_Projekte\GitHub\hydro_opt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fabian\Code\hydro_opt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24A1982B-37F7-4F15-957A-385CB5A685C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9DEE67-0B0E-412D-BC80-25A79717300D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9675" yWindow="1830" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EWI_corrected" sheetId="1" r:id="rId1"/>
@@ -382,8 +382,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -411,8 +419,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -696,26 +705,27 @@
   <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -726,7 +736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -737,7 +747,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -748,7 +758,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -759,7 +769,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -770,7 +780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -781,7 +791,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>102</v>
       </c>
@@ -792,7 +802,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -803,7 +813,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -814,7 +824,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>24</v>
       </c>
@@ -825,7 +835,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -836,7 +846,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>29</v>
       </c>
@@ -847,7 +857,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -858,7 +868,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -869,7 +879,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -880,7 +890,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -891,7 +901,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>41</v>
       </c>
@@ -902,7 +912,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>44</v>
       </c>
@@ -913,7 +923,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>47</v>
       </c>
@@ -924,7 +934,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>50</v>
       </c>
@@ -935,7 +945,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>53</v>
       </c>
@@ -946,7 +956,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>56</v>
       </c>
@@ -957,7 +967,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>59</v>
       </c>
@@ -968,7 +978,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>62</v>
       </c>
@@ -979,7 +989,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>65</v>
       </c>
@@ -990,7 +1000,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>68</v>
       </c>
@@ -1001,7 +1011,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>71</v>
       </c>
@@ -1012,7 +1022,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>74</v>
       </c>
@@ -1023,7 +1033,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>77</v>
       </c>
@@ -1034,7 +1044,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>80</v>
       </c>
@@ -1045,7 +1055,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>82</v>
       </c>
@@ -1056,7 +1066,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>84</v>
       </c>
@@ -1067,7 +1077,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -1078,7 +1088,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>116</v>
       </c>
@@ -1089,7 +1099,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>90</v>
       </c>
@@ -1100,7 +1110,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>91</v>
       </c>
@@ -1111,7 +1121,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -1122,7 +1132,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>96</v>
       </c>
@@ -1135,5 +1145,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>